--- a/Rendu/Stats.xlsx
+++ b/Rendu/Stats.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daekc\OneDrive\Bureau\POO\POO_Ascenseur\Rendu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC21293-0F42-4660-B532-8A09195B8D2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CBF02E1-3973-4634-BC5D-2A8C6BB5DC3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="435" yWindow="3765" windowWidth="17805" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Itération.Durrée" sheetId="1" r:id="rId1"/>
+    <sheet name="Stat" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>Nombre User</t>
   </si>
@@ -42,20 +42,23 @@
     <t>Durée (ms)</t>
   </si>
   <si>
-    <t>Nbuser/Itérations</t>
+    <t>Nbuser</t>
   </si>
   <si>
-    <t>Nbuser/Durée</t>
+    <t>Itérations</t>
   </si>
   <si>
-    <t>Coefficient de Pearson (+ c grand + il y a correlation</t>
+    <t>Durée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coefficient de Pearson </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,8 +66,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -77,8 +88,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -90,7 +107,7 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -102,9 +119,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -120,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -128,11 +156,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -219,7 +259,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Itération.Durrée!$B$1</c:f>
+              <c:f>Stat!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -266,7 +306,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Itération.Durrée!$A$2:$A$55</c:f>
+              <c:f>Stat!$A$2:$A$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="54"/>
@@ -437,7 +477,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Itération.Durrée!$B$2:$B$55</c:f>
+              <c:f>Stat!$B$2:$B$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="54"/>
@@ -1003,7 +1043,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Itération.Durrée!$C$1</c:f>
+              <c:f>Stat!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1050,7 +1090,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Itération.Durrée!$A$2:$A$55</c:f>
+              <c:f>Stat!$A$2:$A$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="54"/>
@@ -1221,7 +1261,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Itération.Durrée!$C$2:$C$55</c:f>
+              <c:f>Stat!$C$2:$C$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="54"/>
@@ -1763,7 +1803,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Itération.Durrée!$C$1</c:f>
+              <c:f>Stat!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1811,7 +1851,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Itération.Durrée!$B$2:$B$55</c:f>
+              <c:f>Stat!$B$2:$B$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="54"/>
@@ -1982,7 +2022,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Itération.Durrée!$C$2:$C$55</c:f>
+              <c:f>Stat!$C$2:$C$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="54"/>
@@ -4498,7 +4538,7 @@
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4506,12 +4546,12 @@
     <col min="1" max="1" width="23.28515625" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
     <col min="3" max="3" width="27.42578125" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="33.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4522,12 +4562,12 @@
         <v>2</v>
       </c>
       <c r="D1" s="1"/>
-      <c r="E1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4550,6 +4590,9 @@
         <v>15</v>
       </c>
       <c r="D3" s="1"/>
+      <c r="F3" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
@@ -4562,10 +4605,10 @@
         <v>15</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <f>PEARSON(Tableau2[Nombre User],Tableau2[Iterations])</f>
         <v>0.75480498973547161</v>
       </c>
@@ -4762,7 +4805,7 @@
       </c>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>10</v>
       </c>
@@ -4785,6 +4828,9 @@
         <v>15</v>
       </c>
       <c r="D22" s="1"/>
+      <c r="F22" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
@@ -4797,10 +4843,10 @@
         <v>15</v>
       </c>
       <c r="D23" s="1"/>
-      <c r="E23" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F23" s="3">
+      <c r="E23" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="5">
         <f>PEARSON(Tableau2[Nombre User],Tableau2[Durée (ms)])</f>
         <v>0.62070756501520774</v>
       </c>
@@ -4997,7 +5043,7 @@
       </c>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>100</v>
       </c>
@@ -5020,6 +5066,9 @@
         <v>16</v>
       </c>
       <c r="D41" s="1"/>
+      <c r="F41" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
@@ -5032,10 +5081,10 @@
         <v>15</v>
       </c>
       <c r="D42" s="1"/>
-      <c r="E42" s="2" t="s">
+      <c r="E42" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="5">
         <f>PEARSON(Tableau2[Durée (ms)],Tableau2[Iterations])</f>
         <v>0.55492827795771804</v>
       </c>
